--- a/medicine/Psychotrope/Confrérie/Confrérie.xlsx
+++ b/medicine/Psychotrope/Confrérie/Confrérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie</t>
+          <t>Confrérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les confréries sont, à l'origine et dans le monde occidental, des groupements de laïcs chrétiens fondés en vue de favoriser une entraide fraternelle ou pour animer et développer une tradition religieuse spécifique. Cette forme d'association à base religieuse et à but profane remonte à l'Antiquité, et prend un grand développement dans les nations chrétiennes au Moyen Âge. Elles existent aussi, ailleurs, dans le monde et en particulier en Afrique sub-saharienne.
 Les confréries religieuses et charitables, associées à la vie des paroisses et dépendantes du clergé, avaient interdiction de faire du commerce, de vendre des prestations ou de forcer à les payer, et leurs ressources provenaient exclusivement de dons volontaires, de legs, de quêtes. Pour cela, elles organisaient des spectacles qui étaient suivis de quêtes, et certaines obtenaient le droit d'organiser des loteries.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie</t>
+          <t>Confrérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,28 +529,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>En Occident[pas clair]
-Les confréries des métiers sont des institutions de tradition romaine. Déjà le roi Numa rangea, en effet, tous les artisans de Rome en autant de confréries qu'il y avait de professions dans la ville; elles avaient chacune un dieu de l’antiquité pour patron. Les lois de Justinien en font mention : elles défendent aux confréries des métiers d’avoir d’autre objet que l’exercice des principes religieux et le soulagement des pauvres. Les confréries françaises des métiers étaient des œuvres toutes de charité et d'assistance, dont faisaient partie tous les gens du métier. Chacune de ces associations était une sorte de société religieuse de secours mutuels, alimentée surtout par les amendes, les parts de droits d’entrée, d’apprentissage, les dons volontaires. Elle secourait les orphelins, les vieillards pauvres, les veuves et au besoin, faisait les frais des mariages et des funérailles[1].
-Les confréries de métier ont été par la suite des groupements constitués à la fin du Moyen Âge (XIVe et XVe siècles en général) dans le cadre des diverses manifestations de la solidarité entre égaux qui tendait à remplacer les liens de protection caractéristiques de l'époque féodale[2].
+          <t>En Occident[pas clair]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les confréries des métiers sont des institutions de tradition romaine. Déjà le roi Numa rangea, en effet, tous les artisans de Rome en autant de confréries qu'il y avait de professions dans la ville; elles avaient chacune un dieu de l’antiquité pour patron. Les lois de Justinien en font mention : elles défendent aux confréries des métiers d’avoir d’autre objet que l’exercice des principes religieux et le soulagement des pauvres. Les confréries françaises des métiers étaient des œuvres toutes de charité et d'assistance, dont faisaient partie tous les gens du métier. Chacune de ces associations était une sorte de société religieuse de secours mutuels, alimentée surtout par les amendes, les parts de droits d’entrée, d’apprentissage, les dons volontaires. Elle secourait les orphelins, les vieillards pauvres, les veuves et au besoin, faisait les frais des mariages et des funérailles.
+Les confréries de métier ont été par la suite des groupements constitués à la fin du Moyen Âge (XIVe et XVe siècles en général) dans le cadre des diverses manifestations de la solidarité entre égaux qui tendait à remplacer les liens de protection caractéristiques de l'époque féodale.
 Les confréries se différencient des communautés de métiers, appelées aussi corporations par plusieurs aspects :
 leur caractère religieux : les confréries avaient pour patron un saint, avec un but spirituel, tandis que les communautés de métier étaient purement profanes, organisées par l'autorité laïque, avec un but économique et politique ;
 un recrutement non exclusif (même une confrérie dite « de métier » ne se limite pas aux membres de son métier). Voir les confréries d'artisans, par exemple, appelées dans le passé guildes, ou corporations ;
 une primauté du lien sur le cadre. Là où la communauté de métier forme une universitas structurant un corps social, la confrérie relie avant tout des individus entre eux ;
-un rôle essentiel du processus d'intercession. La confrérie médiévale n'a pas pour vocation de promouvoir le culte chrétien (ce rôle lui sera dévolu à la période moderne). Par contre, les confrères accomplissent une pratique religieuse plus ou moins régulière ayant pour « but » d'obtenir l'intercession du saint patron de la confrérie. L'avantage de la prière confraternelle sur la pratique solitaire est que la somme des prières de tous les confrères bénéficie individuellement à chaque confrère. On peut en citer quelques-unes : Confrérie de la Passion, Confrérie des Charitables de Saint-Éloi et plus récemment Confrérie de charité.
-En France
-héritage romain
-À l’époque romaine, les confréries étaient organisées par métiers où le roi Numa ( possiblement Numa Pompilius) classait les artisans par la loi Justinien[3] (possiblement Code de Justinien).
-confréries catholiques françaises
-Les confréries catholiques se développent après le Concile de Trente, et principalement au XVIIe siècle, soutenues par les dévôts et les Dominicains dans le but d'instituer un ordre moral rigoureux.
-Elles s'incrustent dans l'Église comme de véritables "États dans l'État", disposent d'une chapelle qui leur est réservée (souvent avec un retable remarquable, par exemple ) et sont propriétaires de leurs objets liturgiques, ont leurs propres statuts juridiques (distincts de ceux des fabriques dont elles sont indépendantes)[4]. Les principales sont les conféries du Rosaire et les Compagnies du Saint-Sacrement ; d'autres existent, par exemple la "Confrérie des cinq plaies de Jésus-Christ"[5] et de nombreuses autres : confréries de Notre-Dame de Délivrance, Notre-Dame du Bon-Pasteur, Notre-Dame de la Consolation, de Notre-Dame des Sept-Douleurs, de l'Immaculée Conception, du Scapulaire, de la Pureté de la Vierge, du Corps du Christ, du Sacré-Cœur, de la Sainte-Croix, de Saint-Joseph, de Saint-Roch, de Sainte-Marie-Madeleine, etc.[6].
-			La Grande confrérie royale de la charité de Notre-Dame-de-Bonne-Délivrance à Paris (estampe de Jean Papillon, 1666).
-			Enclos paroissial de Commana : église Saint-Derrien, le retable des Cinq Plaies.
-regain français
-Dans les années 1950 commence grâce au tourisme une volonté de remettre les terroirs français en valeur, qui se traduit par un regain d’intérêt pour le tradition française culinaire et agricole au travers des confréries[3].
-Dans le monde musulman
-Les confréries musulmanes ont souvent popularisé deux notions : l'amour mystique de Dieu (Allah) et le culte des saints[7]. Voir Confréries soufies, zaouïa, et aussi confréries musulmanes en Afrique de l'Ouest, bektachi, chadhili, yesevis, derviche, séfévides.
-Dans le rite israélite
-La « Société du dernier devoir » (Hevra kaddisha), instituée en France à l'époque contemporaine, est une société librement structurée mais assez organisée et fermée, faisant office de pompes funèbres, composée de membres juifs qui s'occupent de préparer les corps des défunts juifs conformément aux rites de la loi juive (Halakha) et veillent à ce qu'ils ne soient pas désécrés (volontairement ou non) jusqu'à l'enterrement.</t>
+un rôle essentiel du processus d'intercession. La confrérie médiévale n'a pas pour vocation de promouvoir le culte chrétien (ce rôle lui sera dévolu à la période moderne). Par contre, les confrères accomplissent une pratique religieuse plus ou moins régulière ayant pour « but » d'obtenir l'intercession du saint patron de la confrérie. L'avantage de la prière confraternelle sur la pratique solitaire est que la somme des prières de tous les confrères bénéficie individuellement à chaque confrère. On peut en citer quelques-unes : Confrérie de la Passion, Confrérie des Charitables de Saint-Éloi et plus récemment Confrérie de charité.</t>
         </is>
       </c>
     </row>
@@ -548,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie</t>
+          <t>Confrérie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,16 +566,255 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>héritage romain</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l’époque romaine, les confréries étaient organisées par métiers où le roi Numa ( possiblement Numa Pompilius) classait les artisans par la loi Justinien (possiblement Code de Justinien).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>confréries catholiques françaises</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les confréries catholiques se développent après le Concile de Trente, et principalement au XVIIe siècle, soutenues par les dévôts et les Dominicains dans le but d'instituer un ordre moral rigoureux.
+Elles s'incrustent dans l'Église comme de véritables "États dans l'État", disposent d'une chapelle qui leur est réservée (souvent avec un retable remarquable, par exemple ) et sont propriétaires de leurs objets liturgiques, ont leurs propres statuts juridiques (distincts de ceux des fabriques dont elles sont indépendantes). Les principales sont les conféries du Rosaire et les Compagnies du Saint-Sacrement ; d'autres existent, par exemple la "Confrérie des cinq plaies de Jésus-Christ" et de nombreuses autres : confréries de Notre-Dame de Délivrance, Notre-Dame du Bon-Pasteur, Notre-Dame de la Consolation, de Notre-Dame des Sept-Douleurs, de l'Immaculée Conception, du Scapulaire, de la Pureté de la Vierge, du Corps du Christ, du Sacré-Cœur, de la Sainte-Croix, de Saint-Joseph, de Saint-Roch, de Sainte-Marie-Madeleine, etc..
+			La Grande confrérie royale de la charité de Notre-Dame-de-Bonne-Délivrance à Paris (estampe de Jean Papillon, 1666).
+			Enclos paroissial de Commana : église Saint-Derrien, le retable des Cinq Plaies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>regain français</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1950 commence grâce au tourisme une volonté de remettre les terroirs français en valeur, qui se traduit par un regain d’intérêt pour le tradition française culinaire et agricole au travers des confréries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans le monde musulman</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les confréries musulmanes ont souvent popularisé deux notions : l'amour mystique de Dieu (Allah) et le culte des saints. Voir Confréries soufies, zaouïa, et aussi confréries musulmanes en Afrique de l'Ouest, bektachi, chadhili, yesevis, derviche, séfévides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans le rite israélite</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La « Société du dernier devoir » (Hevra kaddisha), instituée en France à l'époque contemporaine, est une société librement structurée mais assez organisée et fermée, faisant office de pompes funèbres, composée de membres juifs qui s'occupent de préparer les corps des défunts juifs conformément aux rites de la loi juive (Halakha) et veillent à ce qu'ils ne soient pas désécrés (volontairement ou non) jusqu'à l'enterrement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Anciennes confréries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Confréries de métier
-Parmi les nombreuses confréries de métier[8], les gildes ou guildes de Saint-Luc (aussi appelées corporations, confréries ou compagnies[réf. nécessaire] de Saint-Luc) étaient des organisations corporatives strictement réglementées de peintres, de sculpteurs et d'imprimeurs, actives depuis le XIVe siècle en Italie (Florence), dans les Pays-Bas (Bruges, Anvers, Utrecht, Delft ou Leyde), les pays rhénans et la France. Comme toutes les confréries professionnelles, elles prirent ce nom en référence à Saint-Luc l'évangéliste, le saint patron des peintres.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Confréries de métier</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les nombreuses confréries de métier, les gildes ou guildes de Saint-Luc (aussi appelées corporations, confréries ou compagnies[réf. nécessaire] de Saint-Luc) étaient des organisations corporatives strictement réglementées de peintres, de sculpteurs et d'imprimeurs, actives depuis le XIVe siècle en Italie (Florence), dans les Pays-Bas (Bruges, Anvers, Utrecht, Delft ou Leyde), les pays rhénans et la France. Comme toutes les confréries professionnelles, elles prirent ce nom en référence à Saint-Luc l'évangéliste, le saint patron des peintres.
 En France, ces sortes de confréries religieuses liées à un métier existaient toujours parallèlement aux communautés de métiers, comme celle des peintres et tailleurs d'images à Paris au Moyen Âge. Dans les domaines qu'on appelle aujourd'hui culturels et artistiques, elles prirent à l'époque moderne, en Italie puis en France, le nom d'académie et tendirent à se séculariser. En France l'académie de Saint-Luc fut transformée en Académie royale de peinture et de sculpture.
-Confréries vénitiennes
-Les confréries vénitiennes sont des scuole (singulier scuola ; vénitien schola, pl. schole). Ces institutions de la république de Venise étaient consacrées aux corporations d'arts, de métiers et à la dévotion des patrons de ceux-ci.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Anciennes confréries</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Confréries vénitiennes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les confréries vénitiennes sont des scuole (singulier scuola ; vénitien schola, pl. schole). Ces institutions de la république de Venise étaient consacrées aux corporations d'arts, de métiers et à la dévotion des patrons de ceux-ci.
 La scuola Grande de San Rocco était l'une des plus riches Scuole de Venise, une institution prestigieuse reconnue par le Conseil des Dix, dont le rôle était de lutter contre les épidémies de peste et destinée à aider la population.
 Les autres scuole se répartissaient en :
 les schole grandi : les associations de charité les plus importantes dans la cité; dotées de grande capacité financière et socialement très importantes vu le grand nombre d'affiliés ;
@@ -582,48 +824,203 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Confréries subsistantes à l'époque contemporaine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Confréries militaires
-En France, le bataillon des canonniers sédentaires de Lille est l'unique descendant des confréries militaires. Créée le 2 mai 1483, la « confrérie des Canonniers et couleuvriniers » de Lille est alors appelée confrérie de Sainte Barbe. Son nom actuel lui est donné par Napoléon Bonaparte en 1803, en récompense de sa résistance face aux Autrichiens lors du siège de Lille de 1792.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Confréries militaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le bataillon des canonniers sédentaires de Lille est l'unique descendant des confréries militaires. Créée le 2 mai 1483, la « confrérie des Canonniers et couleuvriniers » de Lille est alors appelée confrérie de Sainte Barbe. Son nom actuel lui est donné par Napoléon Bonaparte en 1803, en récompense de sa résistance face aux Autrichiens lors du siège de Lille de 1792.
 Dans l'Espagne médiévale, une Hermandad, signifiant « fraternité », désigne une confrérie d'hommes armés formée contre le meurtre et le pillage, et qui fut plus tard organisée administrativement.
 Dans les Pays-Bas des époques médiévale et moderne, une schutterij est une milice citoyenne destinée à protéger la ville ou la cité d'une attaque, d'une révolte ou d'un incendie, comme la confrérie des arbalétriers de saint Sébastien, appartenant à la Garde civique d’Amsterdam, peinte par Bartholomeus van der Helst (1653).
-Confréries religieuses
-Le terme de « confrérie », au sens religieux, existe toujours. Dans le passé, les confréries étaient fréquemment des associations d’entraide, soit affiliées à une église, soit formées de membres d'une même profession. Dans ce cas, ce sont plutôt des corporations. Au XVIIIe siècle encore, on dénombrait pratiquement une confrérie par paroisse, notamment à la campagne[9]. Parmi les confréries qui existent toujours, il y a par exemple :
-Confréries de pèlerinage
-Confrérie de saint Matthieu (de). Depuis le XIe siècle, ces confréries font des pèlerinages vers le sanctuaire de cet apôtre, l'abbaye Saint-Matthias de Trèves, qui est supposée conserver des restes de l'apôtre Matthieu. La tradition des pèlerinages est toujours vivante ;
-Confréries de pénitents
-Confrérie de la miséricorde. À Mons, la confrérie de la Miséricorde ou confrérie de Saint-Jean Décollé, dite des « Beubeux » défile dans la Procession du Car d'Or. Cette confrérie de pénitents visite les prisonniers, organise des conférences, aide les plus démunis,
-l'Archiconfrérie de la Sainte-Croix de Nice[10] Sociétas Gonfalonis ou Société du Gonfalon, plus connue sous le nom de confrérie des pénitents blancs, est une confrérie de pénitents fondée au début du XIVe siècle. Depuis 1817 elle est reconnue d'utilité publique. Elle s'occupe de gestion d’hôpitaux et de soins aux malades,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Confréries subsistantes à l'époque contemporaine</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Confréries religieuses</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de « confrérie », au sens religieux, existe toujours. Dans le passé, les confréries étaient fréquemment des associations d’entraide, soit affiliées à une église, soit formées de membres d'une même profession. Dans ce cas, ce sont plutôt des corporations. Au XVIIIe siècle encore, on dénombrait pratiquement une confrérie par paroisse, notamment à la campagne. Parmi les confréries qui existent toujours, il y a par exemple :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Confréries subsistantes à l'époque contemporaine</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Confréries religieuses</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Confréries de pèlerinage</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Confrérie de saint Matthieu (de). Depuis le XIe siècle, ces confréries font des pèlerinages vers le sanctuaire de cet apôtre, l'abbaye Saint-Matthias de Trèves, qui est supposée conserver des restes de l'apôtre Matthieu. La tradition des pèlerinages est toujours vivante ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Confréries subsistantes à l'époque contemporaine</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Confréries religieuses</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Confréries de pénitents</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Confrérie de la miséricorde. À Mons, la confrérie de la Miséricorde ou confrérie de Saint-Jean Décollé, dite des « Beubeux » défile dans la Procession du Car d'Or. Cette confrérie de pénitents visite les prisonniers, organise des conférences, aide les plus démunis,
+l'Archiconfrérie de la Sainte-Croix de Nice Sociétas Gonfalonis ou Société du Gonfalon, plus connue sous le nom de confrérie des pénitents blancs, est une confrérie de pénitents fondée au début du XIVe siècle. Depuis 1817 elle est reconnue d'utilité publique. Elle s'occupe de gestion d’hôpitaux et de soins aux malades,
 l'Archiconfrérie des pénitents bleus de Nice ou la Société du Saint-Sépulcre ou vénérable archiconfrérie des pénitents bleus de Nice est une confrérie de pénitents d’inspiration franciscaine, fondée au XVe siècle et toujours active aujourd’hui. Elle s'est longtemps impliquée dans le soin des lépreux, la gestion d’hôpitaux, d’un mont-de-piété et d’un orphelinat pour filles, mais la première mission charitable établie par ses fondateurs est l'engagement pour la Terre sainte ;
 Confrérie saint Sébastien de Rheinfelden (de). Elle est née en 1541 comme confrérie pendant l'épidémie de peste à Rheinfelden et est nommé d'après saint Sébastien, protecteur contre la peste ;
-Confrérie Cornélius : une Confrérie Cornélius (de) a pour objectif d'honorer la mémoire du pape Corneille († vers 253), le vingt et unième pape. On connaît en tout 23 confréries Cornélius, dont dix-neuf aux Pays-Bas, sept en Allemagne et six en Belgique. La plupart se trouvent dans des communes qui possèdent une église dont le patron est saint Corneille ;
-Confréries de dévotion et d'intercession
-Archiconfrérie Saint-Michel (de). L'archiconfrérie, de son nom complet Bruderschaft des hl. Erzengels und Himmelsfürsten Michael, est une association catholique d'ecclésiastiques et laïcs dont l'objectif est la vénération de l'archange Michel. Fondée en 1693, elle a eu, à son apogée au XVIIIe siècle, jusqu'à 100 000 membres ; la noblesse était surreprésentée. Elle en compte actuellement environ 800 ;
+Confrérie Cornélius : une Confrérie Cornélius (de) a pour objectif d'honorer la mémoire du pape Corneille († vers 253), le vingt et unième pape. On connaît en tout 23 confréries Cornélius, dont dix-neuf aux Pays-Bas, sept en Allemagne et six en Belgique. La plupart se trouvent dans des communes qui possèdent une église dont le patron est saint Corneille ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Confréries subsistantes à l'époque contemporaine</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Confréries religieuses</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Confréries de dévotion et d'intercession</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Archiconfrérie Saint-Michel (de). L'archiconfrérie, de son nom complet Bruderschaft des hl. Erzengels und Himmelsfürsten Michael, est une association catholique d'ecclésiastiques et laïcs dont l'objectif est la vénération de l'archange Michel. Fondée en 1693, elle a eu, à son apogée au XVIIIe siècle, jusqu'à 100 000 membres ; la noblesse était surreprésentée. Elle en compte actuellement environ 800 ;
 Confrérie du Rosaire : les confréries du Rosaire sont des associations catholiques réunissant des personnes pour prier le Rosaire ;
 Compagnie du Saint-Sacrement : c'était une société catholique fondée en 1630 par Henri de Levis, duc de Ventadour, et dissoute par Louis XIV en 1666 ;
 Confrérie du Saint-Sang. La Confrérie noble du Saint-Sang à Bruges, fondée peu après 1400, est une des plus anciennes confréries religieuses belges. Elle emmène lors de la Procession du Saint-Sang chaque année au mois de mai la relique du Saint Sang rapportée de Terre Sainte ;
@@ -631,67 +1028,242 @@
 la Confrérie de la Cinquième Douleur, confrérie catholique de Séville ;
 la grande confrérie de saint Martial, fondée en 1356 et toujours existante de nos jours, est une compagnie de laïcs de Limoges qui a reçu pour vocation d'honorer et de participer au culte de saint Martial. Elle est considérée comme la mère de toutes les confréries limousines étant aujourd'hui la plus ancienne dans ce diocèse et gardienne des reliques du premier évêque dont elle a la charge des ostensions.
 confrérie catholique de Séville.
-la Confrérie de Saint Loup (Limoges)  Fondée en 1153 elle organise la vénération de l'Evêque de Limoges Saint Loup en la basilique Saint-Michel-des-Lions.
-Confréries de la semaine sainte
-À Séville, durant les huit jours de la Semaine sainte, soixante confréries (Hermandades et Cofradías) sortent en procession pour se rendre à la Cathédrale, conclure leur station de pénitence, avant de revenir vers leur point de départ.
+la Confrérie de Saint Loup (Limoges)  Fondée en 1153 elle organise la vénération de l'Evêque de Limoges Saint Loup en la basilique Saint-Michel-des-Lions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Confréries subsistantes à l'époque contemporaine</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Confréries de la semaine sainte</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>À Séville, durant les huit jours de la Semaine sainte, soixante confréries (Hermandades et Cofradías) sortent en procession pour se rendre à la Cathédrale, conclure leur station de pénitence, avant de revenir vers leur point de départ.
 À Viveiro, ville de Galice en Espagne, durant la Semana Santa de Viveiro, nom officiel de la célébration religieuse de la semaine sainte, huit confréries (Hermandades et Cofradías) sortent en procession dans les rues de la ville.
 À Saragosse, plusieurs confréries participent aussi aux processions, comme la Confrérie de l'Humiliation de Jésus, Sanctissime Marie de l'Amertume, Saint Philippe et Jacques le Mineur.
 À Palencia, il existe huit confréries (la plus ancienne fut fondée en 1407 et s'appelle la Cofradía del Santo Sepulcro, San Juan Bautista y Archicofradía de las Cinco Llagas de San Francisco) qui dirigent les processions. Elles possèdent environ quarante chars (les pasos) qui défilent, durant la Semaine sainte, depuis le Samedi de la Passion jusqu'au Dimanche de Pâques.
-À Braga, au Portugal, la Semana santa est la procession religieuse la plus importante de la ville, et l'une des plus célèbres du Portugal. Durant les huit jours dédiés à la Passion du Christ, les confréries (confrarias) sortent en procession pour se rendre à la cathédrale, et revenir vers leur point de départ. Chacune de ces congrégations conduit lors de son long cheminement ses pasos, autels portés à dos d'hommes.
-Confréries caritatives
-La Confrérie Saint-Christophe est une association de l'« amour chrétien du prochain ». C'est une association purement caritative, de grande envergure, avec plus de 18 000 membres en 2011. Parmi les membres illustres, il y a Juan Carlos d'Espagne, Beatrix des Pays-Bas, des membres de la famille royale saoudienne ou les princes du Liechtenstein. Le siège de la confrérie est l'hospice Saint-Christophe d'Arlberg au Tyrol.
+À Braga, au Portugal, la Semana santa est la procession religieuse la plus importante de la ville, et l'une des plus célèbres du Portugal. Durant les huit jours dédiés à la Passion du Christ, les confréries (confrarias) sortent en procession pour se rendre à la cathédrale, et revenir vers leur point de départ. Chacune de ces congrégations conduit lors de son long cheminement ses pasos, autels portés à dos d'hommes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Confréries subsistantes à l'époque contemporaine</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Confréries caritatives</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La Confrérie Saint-Christophe est une association de l'« amour chrétien du prochain ». C'est une association purement caritative, de grande envergure, avec plus de 18 000 membres en 2011. Parmi les membres illustres, il y a Juan Carlos d'Espagne, Beatrix des Pays-Bas, des membres de la famille royale saoudienne ou les princes du Liechtenstein. Le siège de la confrérie est l'hospice Saint-Christophe d'Arlberg au Tyrol.
 Confrérie Kaland (de) désigne une confrérie de bourgeois aisés ayant pour objectif des bonne œuvres. Ces confréries étaient largement répandues dans de nombreuses villes au Moyen Âge. Le mot Kaland vient du mot latin kalendae. Il désigne le premier jour du mois, et fait référence à l'usage des membres d'une confrérie Kaland de se retrouver régulièrement ce jour-là.
-La Confrérie de l'Arche (ou Confrérie de l'Arche du Saint-Esprit, ou encore Confrérie du Saint-Esprit) est une œuvre caritative fondée au XIIe siècle. Composée uniquement de laïcs, la confrérie de l'arche du Saint-Esprit fut créée par Guy de Montpellier dans le but de réunir toutes les personnes souhaitant aider les pauvres, les malades et les orphelins. Il fonda aussi à la même période l'Ordre des Hospitaliers du Saint-Esprit.
-Confréries civiles
-Les loges maçonniques sont parfois identifiées comme ce type de confrérie[11]. Céline Bryon-Portet qui dirige des travaux de recherche au laboratoire d'études et de recherches appliquées en sciences sociales à l'Université de Toulouse, la qualifie de « confrérie associationniste »[12]. Le rapport qu'elles entretiennent avec d'autres confréries fait l'objet d'études d'historiens depuis plusieurs années[13].
+La Confrérie de l'Arche (ou Confrérie de l'Arche du Saint-Esprit, ou encore Confrérie du Saint-Esprit) est une œuvre caritative fondée au XIIe siècle. Composée uniquement de laïcs, la confrérie de l'arche du Saint-Esprit fut créée par Guy de Montpellier dans le but de réunir toutes les personnes souhaitant aider les pauvres, les malades et les orphelins. Il fonda aussi à la même période l'Ordre des Hospitaliers du Saint-Esprit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Confréries subsistantes à l'époque contemporaine</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Confréries civiles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Les loges maçonniques sont parfois identifiées comme ce type de confrérie. Céline Bryon-Portet qui dirige des travaux de recherche au laboratoire d'études et de recherches appliquées en sciences sociales à l'Université de Toulouse, la qualifie de « confrérie associationniste ». Le rapport qu'elles entretiennent avec d'autres confréries fait l'objet d'études d'historiens depuis plusieurs années.
 Confrérie de la Cuillère, ligue chevaleresque, vers 1527-1536.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Confréries de dégustation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Confréries gastronomiques internationales
-La Guilde internationale des fromagers dite confrérie de Saint Uguzon
-Confréries bachiques ou vineuses françaises
-Commanderie des Costes du Rhône
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Confréries gastronomiques internationales</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>La Guilde internationale des fromagers dite confrérie de Saint Uguzon</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Confréries de dégustation</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Confréries bachiques ou vineuses françaises</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Commanderie des Costes du Rhône
 Confrérie de la Saint-Vincent et disciples de la Chanteflûte.
 Confrérie des Chevaliers du Tastevin.
 Confrérie des Fins Gousiers d'Anjou.
 Confrérie Royale du Château de la Fenouillime à Fleury d'Aude.
-Confrérie des Chevaliers du Sacavin d'Anjou et de Saumur
-Confréries gastronomiques françaises
-Chaque année à Charleville-Mézières le premier dimanche de mai se déroule le festival des confréries.
+Confrérie des Chevaliers du Sacavin d'Anjou et de Saumur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Confréries de dégustation</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Confréries gastronomiques françaises</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année à Charleville-Mézières le premier dimanche de mai se déroule le festival des confréries.
 Confrérie des chevaliers du taste-fromage de France
 Confrérie du Landenon
 Confrérie de la cerise de Venasque
 Confrérie de la fenouillime à Fleury d'Aude
 Confrérie de la figue noire de Caromb
 Confrérie de la fraise de Carpentras
-Confrérie de la prune et de la quetsche Lorraine à Farébersviller[14]
+Confrérie de la prune et de la quetsche Lorraine à Farébersviller
 Confrérie de la tête de veau
 Confrérie de l'académie universelle du cassoulet
 Confrérie de l'ail de Piolenc
@@ -703,10 +1275,10 @@
 Confrérie des chevaliers du brie de Melun
 Confrérie des chevaliers du camembert
 Confrérie des chevaliers du goûte-andouille, à Jargeau
-Confrérie des chevaliers du goûte-boudin[15]
+Confrérie des chevaliers du goûte-boudin
 Confrérie des chevaliers du taste-oignon de Mantes
 Confrérie des compagnons du boudin Blanc à Essay
-Confrérie des fins goûteurs de Charolais[16]
+Confrérie des fins goûteurs de Charolais
 Confrérie des gençanaires à Riom-ès-Montagnes
 Confrérie des rillons et rillettes de Touraine
 Confrérie des Talmeliers du Bon Pain de Saint-Martin de Touraine
@@ -717,27 +1289,62 @@
 Confrérie du diamant noir et de la gastronomie à Richerenches, confrérie de la truffe
 Confrérie du dindon de Varaignes
 Confrérie du pâté aux pommes de terre bourbonnais à Montmarault
-Confrérie gourmande du macaron et de la bergamote de Nancy[17]
+Confrérie gourmande du macaron et de la bergamote de Nancy
 Docte collège des maîtres de la truffe et du foie gras du Périgord
 Ordre du melon de Cavaillon
 Confrérie des Tastes-Framboises de Saulxures-sur-Moselotte
 Confrérie du Taste Vin de Vaucluse à Carpentras
-Confrérie des chevaliers de la Coquille Saint-Jacques des Côtes d'Armor[18]
-Confrérie Piperia la Galette de Pipriac[19].
+Confrérie des chevaliers de la Coquille Saint-Jacques des Côtes d'Armor
+Confrérie Piperia la Galette de Pipriac.
 			Confrérie de la fraise de Carpentras
 			Confrérie du dindon de Varaignes
 			Confrérie de la figue noire de Caromb
 			Ordre du Melon de Cavaillon
 			Confrérie de l'ail de Piolenc
-Confréries gastronomiques belges wallonnes et bruxelloises
-Confrérie de Jean de Nivelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Confréries de dégustation</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Confréries gastronomiques belges wallonnes et bruxelloises</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Confrérie de Jean de Nivelles
 Confrérie de la bière Betchard de Tubize
 Confrérie de la Cervoise d'Anthines
 Confrérie de la Djaye de Tellin
 Confrérie de la fraise de Votem
 Confrérie de la gaufre liégeoise "La Strème"
 Confrérie de la seigneurie du remoudou
-Confrérie de l'ordre du cochon Piétrain[20]
+Confrérie de l'ordre du cochon Piétrain
 Confrérie de l'ortie
 Confrérie dè Magneu Makêye
 Confrérie dèl Crolèye djote di Warou
@@ -755,7 +1362,7 @@
 Confrérie des Mougneûs d'Vête Trëpe d'Orp-le-Petit
 Confrérie des Mougneux d'Coutches et les Géants de Dinant
 Confrérie des Poires de Saint R'Mèy
-Confrérie des Sossons d'Orvaulx[21] (Orval)
+Confrérie des Sossons d'Orvaulx (Orval)
 Confrérie des vignerons du Petit-Bourgogne
 Confrérie des Vins de Fruits d'Ottignies
 Confrérie du Francs Thour Nostre Dames de Chiney (Ciney)
@@ -763,7 +1370,7 @@
 Confrérie du Grand Apier de Tilf
 Confrérie du lev'gos
 Confrérie Royale des Zigomars (Virton)
-Confrérie du Maitrank[22] (Arlon)
+Confrérie du Maitrank (Arlon)
 Confrérie du Stofé de Wavre
 Confrérie du Tire-Bouchon de Rixensart
 Confrérie Tchantchès (Liège)
@@ -778,77 +1385,157 @@
 Ordre des Kuulkappers de Saint-Gilles
 Ordre du Blanc bleu belge
 Ordre du Faro de Bruxelles
-Ordre du Malt de Hannut
-Autres confréries wallonnes
-Confrérie des archers de Sainte-Christine
+Ordre du Malt de Hannut</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Confréries de dégustation</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Confréries gastronomiques belges wallonnes et bruxelloises</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Autres confréries wallonnes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Confrérie des archers de Sainte-Christine
 Confrérie de Saint-Vincent
 Confrérie des Clawtî Benne-Houssèye
 Confrérie des Disciples de Charlemagne
 La Confrérie du Duché D'Austrasie
-La Confrérie de la Gâte d'Or
-Autres confréries belges
-Confrérie Nationale des Chauves de Belgique
+La Confrérie de la Gâte d'Or</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Confréries de dégustation</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Confréries gastronomiques belges wallonnes et bruxelloises</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Autres confréries belges</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Confrérie Nationale des Chauves de Belgique
 Ordre de Manneken-Pis de Bruxelles
 Ordre des Moustaches de Bruxelles</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Fraternités estudiantines</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Très répandues dans le système universitaire anglo-saxon ainsi qu'en Belgique, il en existe aussi ailleurs.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Confrérie</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Confréries de fiction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>La notion de confrérie a également été reprise dans des œuvres de fiction telles que romans, bandes dessinées, jeux de rôle et dans l'humour populaire, par exemple :
 Confrérie des mauvais mutants.
